--- a/biology/Médecine/Valve_sigmoïde/Valve_sigmoïde.xlsx
+++ b/biology/Médecine/Valve_sigmoïde/Valve_sigmoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Valve_sigmo%C3%AFde</t>
+          <t>Valve_sigmoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Une valve sigmoïde est une valve artérielle assurant la liaison entre un ventricule et les vaisseaux partant du cœur. Il existe deux valves sigmoïdes, la valve aortique entre le ventricule gauche et l'aorte et la valve pulmonaire entre le ventricule droit et l'artère pulmonaire, chaque valve étant composée de trois valvules.
 La valve pulmonaire située à l'entrée de l'artère pulmonaire, est constituée comme l'aorte de trois valvules (ou cuspides) sigmoïdes (antérieur, droit et gauche) orientées vers l'artère pulmonaire.
